--- a/Projektplanung_spotify_M150.xlsx
+++ b/Projektplanung_spotify_M150.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41784\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41784\Documents\GitHub\spotify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE7DFBE-5BB2-4538-9387-C043F4F0ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B4E71-1D6B-420F-80FA-E2E0AEFFD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5BA921BB-238C-4D70-8672-E42DB9F504BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$AX$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$AX$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Projektplanung M133</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Bootstrap/Java Script testen &amp; verbessern</t>
-  </si>
-  <si>
-    <t>UI fertigstellen</t>
   </si>
   <si>
     <t>Design fertig</t>
@@ -174,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,83 +351,95 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -461,34 +476,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1263,13 +1250,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="78" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="78" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,264 +1268,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="38"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="29"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="24">
+      <c r="E2" s="16">
         <f>E3</f>
         <v>44965</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="16">
         <f>F3</f>
         <v>44966</v>
       </c>
-      <c r="G2" s="24">
-        <f t="shared" ref="D2:AY2" si="0">G3</f>
+      <c r="G2" s="16">
+        <f t="shared" ref="G2:AY2" si="0">G3</f>
         <v>44967</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="16">
         <f t="shared" si="0"/>
         <v>44968</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="16">
         <f t="shared" si="0"/>
         <v>44969</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="16">
         <f t="shared" si="0"/>
         <v>44970</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="16">
         <f t="shared" si="0"/>
         <v>44971</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="16">
         <f t="shared" si="0"/>
         <v>44972</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="16">
         <f t="shared" si="0"/>
         <v>44973</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="16">
         <f t="shared" si="0"/>
         <v>44974</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="16">
         <f t="shared" si="0"/>
         <v>44975</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="16">
         <f t="shared" si="0"/>
         <v>44976</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="16">
         <f t="shared" si="0"/>
         <v>44977</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="16">
         <f t="shared" si="0"/>
         <v>44978</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="16">
         <f t="shared" si="0"/>
         <v>44979</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="16">
         <f t="shared" si="0"/>
         <v>44980</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="16">
         <f t="shared" si="0"/>
         <v>44981</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="16">
         <f t="shared" si="0"/>
         <v>44982</v>
       </c>
-      <c r="W2" s="24">
+      <c r="W2" s="16">
         <f t="shared" si="0"/>
         <v>44983</v>
       </c>
-      <c r="X2" s="24">
+      <c r="X2" s="16">
         <f t="shared" si="0"/>
         <v>44984</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="Y2" s="16">
         <f t="shared" si="0"/>
         <v>44985</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="Z2" s="16">
         <f t="shared" si="0"/>
         <v>44986</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AA2" s="16">
         <f t="shared" si="0"/>
         <v>44987</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AB2" s="16">
         <f t="shared" si="0"/>
         <v>44988</v>
       </c>
-      <c r="AC2" s="24">
+      <c r="AC2" s="16">
         <f t="shared" si="0"/>
         <v>44989</v>
       </c>
-      <c r="AD2" s="24">
+      <c r="AD2" s="16">
         <f t="shared" si="0"/>
         <v>44990</v>
       </c>
-      <c r="AE2" s="24">
+      <c r="AE2" s="16">
         <f t="shared" si="0"/>
         <v>44991</v>
       </c>
-      <c r="AF2" s="24">
+      <c r="AF2" s="16">
         <f t="shared" si="0"/>
         <v>44992</v>
       </c>
-      <c r="AG2" s="24">
+      <c r="AG2" s="16">
         <f t="shared" si="0"/>
         <v>44993</v>
       </c>
-      <c r="AH2" s="24">
+      <c r="AH2" s="16">
         <f t="shared" si="0"/>
         <v>44994</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AI2" s="16">
         <f t="shared" si="0"/>
         <v>44995</v>
       </c>
-      <c r="AJ2" s="24">
+      <c r="AJ2" s="16">
         <f t="shared" si="0"/>
         <v>44996</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="16">
         <f t="shared" si="0"/>
         <v>44997</v>
       </c>
-      <c r="AL2" s="24">
+      <c r="AL2" s="16">
         <f t="shared" si="0"/>
         <v>44998</v>
       </c>
-      <c r="AM2" s="24">
+      <c r="AM2" s="16">
         <f t="shared" si="0"/>
         <v>44999</v>
       </c>
-      <c r="AN2" s="24">
+      <c r="AN2" s="16">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="AO2" s="24">
+      <c r="AO2" s="16">
         <f t="shared" si="0"/>
         <v>45001</v>
       </c>
-      <c r="AP2" s="24">
+      <c r="AP2" s="16">
         <f t="shared" si="0"/>
         <v>45002</v>
       </c>
-      <c r="AQ2" s="24">
+      <c r="AQ2" s="16">
         <f t="shared" si="0"/>
         <v>45003</v>
       </c>
-      <c r="AR2" s="24">
+      <c r="AR2" s="16">
         <f t="shared" si="0"/>
         <v>45004</v>
       </c>
-      <c r="AS2" s="24">
+      <c r="AS2" s="16">
         <f t="shared" si="0"/>
         <v>45005</v>
       </c>
-      <c r="AT2" s="24">
+      <c r="AT2" s="16">
         <f t="shared" si="0"/>
         <v>45006</v>
       </c>
-      <c r="AU2" s="24">
+      <c r="AU2" s="16">
         <f t="shared" si="0"/>
         <v>45007</v>
       </c>
-      <c r="AV2" s="24">
+      <c r="AV2" s="16">
         <f t="shared" si="0"/>
         <v>45008</v>
       </c>
-      <c r="AW2" s="24">
+      <c r="AW2" s="16">
         <f t="shared" si="0"/>
         <v>45009</v>
       </c>
-      <c r="AX2" s="24">
+      <c r="AX2" s="16">
         <f t="shared" si="0"/>
         <v>45010</v>
       </c>
-      <c r="AY2" s="25">
+      <c r="AY2" s="17">
         <f t="shared" si="0"/>
         <v>45011</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="7">
         <v>44964</v>
       </c>
@@ -1547,7 +1534,7 @@
         <v>44965</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="E3:AX3" si="1">E3+1</f>
+        <f t="shared" ref="F3:AV3" si="1">E3+1</f>
         <v>44966</v>
       </c>
       <c r="G3" s="2">
@@ -1732,17 +1719,17 @@
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>23</v>
+      <c r="B4" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>IF(AND(ISBLANK(B4),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1788,77 +1775,77 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
-      <c r="AX4" s="35"/>
+      <c r="AX4" s="19"/>
       <c r="AY4" s="9"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="str">
         <f>IF(AND(ISBLANK(B5),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="35"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="10"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>22</v>
+      <c r="B6" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>IF(AND(ISBLANK(B6),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1904,83 +1891,83 @@
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
-      <c r="AX6" s="35"/>
+      <c r="AX6" s="19"/>
       <c r="AY6" s="9"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="1" t="str">
         <f>IF(AND(ISBLANK(B7),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
       <c r="AX7" s="3"/>
       <c r="AY7" s="10"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
+      <c r="B8" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>IF(AND(ISBLANK(B8),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2020,84 +2007,84 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
-      <c r="AX8" s="35"/>
+      <c r="AX8" s="19"/>
       <c r="AY8" s="9"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="1" t="str">
         <f>IF(AND(ISBLANK(B9),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
       <c r="AX9" s="3"/>
       <c r="AY9" s="10"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
+      <c r="B10" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(AND(ISBLANK(B10),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2136,74 +2123,74 @@
       <c r="AU10" s="11"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="11"/>
-      <c r="AX10" s="35"/>
+      <c r="AX10" s="19"/>
       <c r="AY10" s="9"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="1" t="str">
         <f>IF(AND(ISBLANK(B11),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="37"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="21"/>
       <c r="AX11" s="3"/>
       <c r="AY11" s="10"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2249,13 +2236,13 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="35"/>
+      <c r="AX12" s="19"/>
       <c r="AY12" s="9"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="14"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2306,132 +2293,132 @@
       <c r="AY13" s="10"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>21</v>
+      <c r="B14" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" ref="B14:C14" si="2">IF(AND(ISBLANK(B14),ISBLANK(B15)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
+        <f t="shared" ref="C14" si="2">IF(AND(ISBLANK(B14),ISBLANK(B15)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="37"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="21"/>
       <c r="AY14" s="9"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="1" t="str">
         <f>IF(AND(ISBLANK(B15),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="37"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="21"/>
       <c r="AX15" s="3"/>
       <c r="AY15" s="10"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>21</v>
+      <c r="B16" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" ref="B16:C19" si="3">IF(AND(ISBLANK(B16),ISBLANK(B17)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
+        <f t="shared" ref="C16:C19" si="3">IF(AND(ISBLANK(B16),ISBLANK(B17)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2445,19 +2432,19 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
@@ -2477,12 +2464,12 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="35"/>
+      <c r="AX16" s="19"/>
       <c r="AY16" s="9"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="1" t="str">
         <f>IF(AND(ISBLANK(B17),ISBLANK(B18)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2537,132 +2524,132 @@
       <c r="AY17" s="10"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>21</v>
+      <c r="B18" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Soll</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="35"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="19"/>
       <c r="AY18" s="9"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Ist</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="37"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="21"/>
       <c r="AX19" s="3"/>
       <c r="AY19" s="10"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2708,13 +2695,13 @@
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
-      <c r="AX20" s="35"/>
+      <c r="AX20" s="19"/>
       <c r="AY20" s="9"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="14"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2765,131 +2752,131 @@
       <c r="AY21" s="10"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>21</v>
+      <c r="B22" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="35"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="21"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="21"/>
+      <c r="AX22" s="19"/>
       <c r="AY22" s="9"/>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="str">
-        <f>IF(AND(ISBLANK(B23),ISBLANK(B26)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
+        <f>IF(AND(ISBLANK(B23),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="37"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="21"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="10"/>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>21</v>
+      <c r="B24" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2914,10 +2901,10 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
@@ -2935,14 +2922,14 @@
       <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
-      <c r="AX24" s="35"/>
+      <c r="AX24" s="19"/>
       <c r="AY24" s="9"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="1" t="str">
-        <f>IF(AND(ISBLANK(B25),ISBLANK(B26)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
+        <f>IF(AND(ISBLANK(B25),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
       <c r="D25" s="14"/>
@@ -2995,468 +2982,360 @@
       <c r="AY25" s="10"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="35"/>
+      <c r="B26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="19"/>
       <c r="AY26" s="9"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="1" t="str">
-        <f>IF(AND(ISBLANK(B27),ISBLANK(B28)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
-        <v>Ist</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="10"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>1</v>
+      <c r="B28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="35"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="19"/>
       <c r="AY28" s="9"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="1" t="str">
+        <f>IF(AND(ISBLANK(B29),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
+        <v>Ist</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="21"/>
       <c r="AX29" s="3"/>
       <c r="AY29" s="10"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
-      <c r="AO30" s="35"/>
-      <c r="AP30" s="35"/>
-      <c r="AQ30" s="35"/>
-      <c r="AR30" s="35"/>
-      <c r="AS30" s="35"/>
-      <c r="AT30" s="35"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="35"/>
-      <c r="AW30" s="37"/>
-      <c r="AX30" s="35"/>
+      <c r="A30" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="19"/>
       <c r="AY30" s="9"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="1" t="str">
-        <f>IF(AND(ISBLANK(B31),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
-        <v>Ist</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
       <c r="AY31" s="10"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="35"/>
-      <c r="AY32" s="9"/>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B30:B31"/>
+  <mergeCells count="32">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A1:AY1"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3471,98 +3350,89 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12 B2:C2 A34:C1048576 A4:C4 C5:C11 C14:C19 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18">
-    <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
+  <conditionalFormatting sqref="A12 B2:C2 A32:C1048576 A4:C4 C5:C11 C14:C19 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18">
+    <cfRule type="cellIs" dxfId="20" priority="50" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 B34:C1048576 B4:C4 C5:C11 C14:C19 B6 B8 B10 B14 B16 B18">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+  <conditionalFormatting sqref="B2:C2 B32:C1048576 B4:C4 C5:C11 C14:C19 B6 B8 B10 B14 B16 B18">
+    <cfRule type="cellIs" dxfId="19" priority="49" operator="equal">
       <formula>"Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:AX4 D9:W9 Y9:AX9 D5:AX8 D10:AX12 D15:AX1048576 D13:AW14">
-    <cfRule type="expression" dxfId="22" priority="48">
+  <conditionalFormatting sqref="F4:AX4 D9:W9 Y9:AX9 D5:AX8 D10:AX12 D13:AW14 D15:AX1048576">
+    <cfRule type="expression" dxfId="18" priority="48">
       <formula>$B4="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:AY3">
-    <cfRule type="expression" dxfId="21" priority="55">
+    <cfRule type="expression" dxfId="17" priority="55">
       <formula>$B2="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="20" priority="45">
+    <cfRule type="expression" dxfId="16" priority="45">
       <formula>$B12="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C27">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+  <conditionalFormatting sqref="C22:C25">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C27">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+  <conditionalFormatting sqref="C22:C25">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A24 A26">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+  <conditionalFormatting sqref="A22 A24">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>$B20="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$B28="Ist"</formula>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="6" priority="14">
+      <formula>$B26="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$B32="Ist"</formula>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="5" priority="13">
+      <formula>$B30="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX13">
@@ -3570,22 +3440,22 @@
       <formula>$B14="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22 B24 B26">
+  <conditionalFormatting sqref="B22 B24">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22 B24 B26">
+  <conditionalFormatting sqref="B22 B24">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B28">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Ist"</formula>
     </cfRule>

--- a/Projektplanung_spotify_M150.xlsx
+++ b/Projektplanung_spotify_M150.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41784\Documents\GitHub\spotify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Documents\GitHub\spotify_M150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B4E71-1D6B-420F-80FA-E2E0AEFFD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF65946A-C45B-4DC9-8C58-8BB86AB8B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5BA921BB-238C-4D70-8672-E42DB9F504BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{5BA921BB-238C-4D70-8672-E42DB9F504BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Projektplanung M133</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Dienstag</t>
-  </si>
-  <si>
-    <t>Ricky</t>
   </si>
   <si>
     <t>Maria</t>
@@ -372,6 +369,39 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,19 +414,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,34 +426,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,11 +1249,11 @@
   </sheetPr>
   <dimension ref="A1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="78" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1268,66 +1265,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="29"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="38"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -1523,9 +1520,9 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="7">
         <v>44964</v>
       </c>
@@ -1722,14 +1719,14 @@
       <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>22</v>
+      <c r="B4" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>IF(AND(ISBLANK(B4),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1780,12 +1777,12 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
-      <c r="B5" s="27"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="1" t="str">
         <f>IF(AND(ISBLANK(B5),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -1838,14 +1835,14 @@
       <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>21</v>
+      <c r="B6" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>IF(AND(ISBLANK(B6),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Soll</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1896,12 +1893,12 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="1" t="str">
         <f>IF(AND(ISBLANK(B7),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -1954,8 +1951,8 @@
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>22</v>
+      <c r="B8" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>IF(AND(ISBLANK(B8),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
@@ -1964,10 +1961,10 @@
       <c r="D8" s="15"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2012,7 +2009,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="1" t="str">
         <f>IF(AND(ISBLANK(B9),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2070,8 +2067,8 @@
       <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>22</v>
+      <c r="B10" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(AND(ISBLANK(B10),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
@@ -2081,10 +2078,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2128,7 +2125,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1" t="str">
         <f>IF(AND(ISBLANK(B11),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2183,13 +2180,13 @@
       <c r="AY11" s="10"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2240,9 +2237,9 @@
       <c r="AY12" s="9"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="14"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2296,8 +2293,8 @@
       <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>20</v>
+      <c r="B14" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ref="C14" si="2">IF(AND(ISBLANK(B14),ISBLANK(B15)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
@@ -2316,8 +2313,8 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
       <c r="U14" s="19"/>
@@ -2353,7 +2350,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="1" t="str">
         <f>IF(AND(ISBLANK(B15),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2411,8 +2408,8 @@
       <c r="A16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>20</v>
+      <c r="B16" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" ref="C16:C19" si="3">IF(AND(ISBLANK(B16),ISBLANK(B17)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
@@ -2432,19 +2429,19 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" s="30"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="str">
         <f>IF(AND(ISBLANK(B17),ISBLANK(B18)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2527,8 +2524,8 @@
       <c r="A18" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>20</v>
+      <c r="B18" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2548,20 +2545,20 @@
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" s="30"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Ist</v>
@@ -2640,13 +2637,13 @@
       <c r="AY19" s="10"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="15"/>
@@ -2699,9 +2696,9 @@
       <c r="AY20" s="9"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="14"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2755,8 +2752,8 @@
       <c r="A22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>20</v>
+      <c r="B22" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>5</v>
@@ -2786,10 +2783,10 @@
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
@@ -2812,7 +2809,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" s="30"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="1" t="str">
         <f>IF(AND(ISBLANK(B23),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2870,8 +2867,8 @@
       <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>20</v>
+      <c r="B24" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>5</v>
@@ -2901,10 +2898,10 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" s="30"/>
-      <c r="B25" s="27"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="1" t="str">
         <f>IF(AND(ISBLANK(B25),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2982,13 +2979,13 @@
       <c r="AY25" s="10"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="15"/>
@@ -3041,9 +3038,9 @@
       <c r="AY26" s="9"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3097,8 +3094,8 @@
       <c r="A28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>20</v>
+      <c r="B28" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>5</v>
@@ -3132,15 +3129,15 @@
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
       <c r="AP28" s="19"/>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
@@ -3154,7 +3151,7 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="1" t="str">
         <f>IF(AND(ISBLANK(B29),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -3209,13 +3206,13 @@
       <c r="AY29" s="10"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="15"/>
@@ -3268,9 +3265,9 @@
       <c r="AY30" s="9"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3322,15 +3319,10 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A7"/>
@@ -3347,13 +3339,18 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <conditionalFormatting sqref="A12 B2:C2 A32:C1048576 A4:C4 C5:C11 C14:C19 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18">
     <cfRule type="cellIs" dxfId="20" priority="50" operator="equal">

--- a/Projektplanung_spotify_M150.xlsx
+++ b/Projektplanung_spotify_M150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Documents\GitHub\spotify_M150\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wordpress\wp-content\plugins\spotify_M150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF65946A-C45B-4DC9-8C58-8BB86AB8B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807917E-890B-49E2-95C0-EB1C0CEE0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{5BA921BB-238C-4D70-8672-E42DB9F504BA}"/>
   </bookViews>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,37 +381,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -426,54 +420,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <border>
         <bottom style="thin">
@@ -511,27 +486,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -551,9 +505,18 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -565,6 +528,13 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -588,6 +558,34 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1250,10 +1248,10 @@
   <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,66 +1263,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="38"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="36"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -1520,9 +1518,9 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="7">
         <v>44964</v>
       </c>
@@ -1716,10 +1714,10 @@
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
@@ -1776,8 +1774,8 @@
       <c r="AY4" s="9"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="str">
         <f>IF(AND(ISBLANK(B5),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -1832,10 +1830,10 @@
       <c r="AY5" s="10"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="str">
@@ -1892,8 +1890,8 @@
       <c r="AY6" s="9"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="1" t="str">
         <f>IF(AND(ISBLANK(B7),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -1948,10 +1946,10 @@
       <c r="AY7" s="10"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -2008,8 +2006,8 @@
       <c r="AY8" s="9"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1" t="str">
         <f>IF(AND(ISBLANK(B9),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2018,8 +2016,8 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -2064,10 +2062,10 @@
       <c r="AY9" s="10"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -2124,8 +2122,8 @@
       <c r="AY10" s="9"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="1" t="str">
         <f>IF(AND(ISBLANK(B11),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2149,10 +2147,10 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
@@ -2180,13 +2178,13 @@
       <c r="AY11" s="10"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2237,9 +2235,9 @@
       <c r="AY12" s="9"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="14"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2290,10 +2288,10 @@
       <c r="AY13" s="10"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -2349,8 +2347,8 @@
       <c r="AY14" s="9"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="1" t="str">
         <f>IF(AND(ISBLANK(B15),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2374,10 +2372,10 @@
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -2405,10 +2403,10 @@
       <c r="AY15" s="10"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -2465,8 +2463,8 @@
       <c r="AY16" s="9"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="1" t="str">
         <f>IF(AND(ISBLANK(B17),ISBLANK(B18)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2492,12 +2490,12 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -2521,10 +2519,10 @@
       <c r="AY17" s="10"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="str">
@@ -2581,8 +2579,8 @@
       <c r="AY18" s="9"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Ist</v>
@@ -2608,12 +2606,12 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
@@ -2637,13 +2635,13 @@
       <c r="AY19" s="10"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="15"/>
@@ -2696,9 +2694,9 @@
       <c r="AY20" s="9"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="14"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2725,7 +2723,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
+      <c r="AD21" s="43"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -2749,10 +2747,10 @@
       <c r="AY21" s="10"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2808,8 +2806,8 @@
       <c r="AY22" s="9"/>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1" t="str">
         <f>IF(AND(ISBLANK(B23),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2849,11 +2847,11 @@
       <c r="AJ23" s="19"/>
       <c r="AK23" s="19"/>
       <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
       <c r="AR23" s="19"/>
       <c r="AS23" s="19"/>
       <c r="AT23" s="19"/>
@@ -2864,10 +2862,10 @@
       <c r="AY23" s="10"/>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2923,8 +2921,8 @@
       <c r="AY24" s="9"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="1" t="str">
         <f>IF(AND(ISBLANK(B25),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2964,11 +2962,11 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
@@ -2979,13 +2977,13 @@
       <c r="AY25" s="10"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="15"/>
@@ -3038,9 +3036,9 @@
       <c r="AY26" s="9"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3081,7 +3079,7 @@
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
+      <c r="AR27" s="43"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
@@ -3091,10 +3089,10 @@
       <c r="AY27" s="10"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -3150,8 +3148,8 @@
       <c r="AY28" s="9"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="1" t="str">
         <f>IF(AND(ISBLANK(B29),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -3198,21 +3196,21 @@
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="10"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="46"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="46"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="44"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="15"/>
@@ -3257,7 +3255,7 @@
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
+      <c r="AT30" s="24"/>
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
@@ -3265,9 +3263,9 @@
       <c r="AY30" s="9"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3315,15 +3313,21 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
-      <c r="AY31" s="10"/>
+      <c r="AY31" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A1:AY1"/>
@@ -3340,121 +3344,101 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12 B2:C2 A32:C1048576 A4:C4 C5:C11 C14:C19 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18">
-    <cfRule type="cellIs" dxfId="20" priority="50" operator="equal">
+  <conditionalFormatting sqref="A12 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18 A4:C4 A32:C1048576 B2:C2 C5:C11 C14:C19">
+    <cfRule type="cellIs" dxfId="18" priority="50" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 B32:C1048576 B4:C4 C5:C11 C14:C19 B6 B8 B10 B14 B16 B18">
-    <cfRule type="cellIs" dxfId="19" priority="49" operator="equal">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22 A24:B24">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 B8 B10 B14 B16 B18 B2:C2 B4:C4 B32:C1048576 C5:C11 C14:C19">
+    <cfRule type="cellIs" dxfId="13" priority="49" operator="equal">
       <formula>"Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:AX4 D9:W9 Y9:AX9 D5:AX8 D10:AX12 D13:AW14 D15:AX1048576">
-    <cfRule type="expression" dxfId="18" priority="48">
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="12" priority="45">
+      <formula>$B12="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$B20="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22 B24">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>$B26="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="7" priority="13">
+      <formula>$B30="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C25">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:W9 D13:AW14 D5:AX8 D10:AX12 D15:AX1048576 F4:AX4 Y9:AX9">
+    <cfRule type="expression" dxfId="2" priority="48">
       <formula>$B4="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:AY3">
-    <cfRule type="expression" dxfId="17" priority="55">
+    <cfRule type="expression" dxfId="1" priority="55">
       <formula>$B2="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="16" priority="45">
-      <formula>$B12="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
-      <formula>"Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
-      <formula>"Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22 A24">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>$B20="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$B26="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="5" priority="13">
-      <formula>$B30="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AX13">
-    <cfRule type="expression" dxfId="4" priority="57">
+    <cfRule type="expression" dxfId="0" priority="57">
       <formula>$B14="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 B24">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 B24">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Ist"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.44264705882352939" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projektplanung_spotify_M150.xlsx
+++ b/Projektplanung_spotify_M150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wordpress\wp-content\plugins\spotify_M150\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Documents\GitHub\spotify_M150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807917E-890B-49E2-95C0-EB1C0CEE0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF65946A-C45B-4DC9-8C58-8BB86AB8B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{5BA921BB-238C-4D70-8672-E42DB9F504BA}"/>
   </bookViews>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +381,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,21 +412,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -420,35 +426,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -486,6 +511,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -505,18 +551,9 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -528,13 +565,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -558,34 +588,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1248,10 +1250,10 @@
   <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9:X9"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,66 +1265,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="36"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="38"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -1518,9 +1520,9 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="7">
         <v>44964</v>
       </c>
@@ -1714,10 +1716,10 @@
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
@@ -1774,8 +1776,8 @@
       <c r="AY4" s="9"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="1" t="str">
         <f>IF(AND(ISBLANK(B5),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -1830,10 +1832,10 @@
       <c r="AY5" s="10"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="str">
@@ -1890,8 +1892,8 @@
       <c r="AY6" s="9"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="1" t="str">
         <f>IF(AND(ISBLANK(B7),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -1946,10 +1948,10 @@
       <c r="AY7" s="10"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -2006,8 +2008,8 @@
       <c r="AY8" s="9"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="1" t="str">
         <f>IF(AND(ISBLANK(B9),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2016,8 +2018,8 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -2062,10 +2064,10 @@
       <c r="AY9" s="10"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -2122,8 +2124,8 @@
       <c r="AY10" s="9"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1" t="str">
         <f>IF(AND(ISBLANK(B11),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2147,10 +2149,10 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
@@ -2178,13 +2180,13 @@
       <c r="AY11" s="10"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2235,9 +2237,9 @@
       <c r="AY12" s="9"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="14"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2288,10 +2290,10 @@
       <c r="AY13" s="10"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -2347,8 +2349,8 @@
       <c r="AY14" s="9"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="1" t="str">
         <f>IF(AND(ISBLANK(B15),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2372,10 +2374,10 @@
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -2403,10 +2405,10 @@
       <c r="AY15" s="10"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -2463,8 +2465,8 @@
       <c r="AY16" s="9"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="str">
         <f>IF(AND(ISBLANK(B17),ISBLANK(B18)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2490,12 +2492,12 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -2519,10 +2521,10 @@
       <c r="AY17" s="10"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="str">
@@ -2579,8 +2581,8 @@
       <c r="AY18" s="9"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Ist</v>
@@ -2606,12 +2608,12 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
@@ -2635,13 +2637,13 @@
       <c r="AY19" s="10"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="15"/>
@@ -2694,9 +2696,9 @@
       <c r="AY20" s="9"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="14"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2723,7 +2725,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="43"/>
+      <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -2747,10 +2749,10 @@
       <c r="AY21" s="10"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2806,8 +2808,8 @@
       <c r="AY22" s="9"/>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="1" t="str">
         <f>IF(AND(ISBLANK(B23),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2847,11 +2849,11 @@
       <c r="AJ23" s="19"/>
       <c r="AK23" s="19"/>
       <c r="AL23" s="19"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
       <c r="AR23" s="19"/>
       <c r="AS23" s="19"/>
       <c r="AT23" s="19"/>
@@ -2862,10 +2864,10 @@
       <c r="AY23" s="10"/>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2921,8 +2923,8 @@
       <c r="AY24" s="9"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="1" t="str">
         <f>IF(AND(ISBLANK(B25),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2962,11 +2964,11 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
@@ -2977,13 +2979,13 @@
       <c r="AY25" s="10"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="15"/>
@@ -3036,9 +3038,9 @@
       <c r="AY26" s="9"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3079,7 +3081,7 @@
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
-      <c r="AR27" s="43"/>
+      <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
@@ -3089,10 +3091,10 @@
       <c r="AY27" s="10"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -3148,8 +3150,8 @@
       <c r="AY28" s="9"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="1" t="str">
         <f>IF(AND(ISBLANK(B29),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -3196,21 +3198,21 @@
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="46"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="46"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="44"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="10"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="15"/>
@@ -3255,7 +3257,7 @@
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
-      <c r="AT30" s="24"/>
+      <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
@@ -3263,9 +3265,9 @@
       <c r="AY30" s="9"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3313,21 +3315,15 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
-      <c r="AY31" s="44"/>
+      <c r="AY31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A1:AY1"/>
@@ -3344,101 +3340,121 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18 A4:C4 A32:C1048576 B2:C2 C5:C11 C14:C19">
-    <cfRule type="cellIs" dxfId="18" priority="50" operator="equal">
+  <conditionalFormatting sqref="A12 B2:C2 A32:C1048576 A4:C4 C5:C11 C14:C19 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18">
+    <cfRule type="cellIs" dxfId="20" priority="50" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C2 B32:C1048576 B4:C4 C5:C11 C14:C19 B6 B8 B10 B14 B16 B18">
+    <cfRule type="cellIs" dxfId="19" priority="49" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:AX4 D9:W9 Y9:AX9 D5:AX8 D10:AX12 D13:AW14 D15:AX1048576">
+    <cfRule type="expression" dxfId="18" priority="48">
+      <formula>$B4="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:AY3">
+    <cfRule type="expression" dxfId="17" priority="55">
+      <formula>$B2="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="16" priority="45">
+      <formula>$B12="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C25">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C25">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22 A24">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>"Soll"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22 A24:B24">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>$B20="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="6" priority="14">
+      <formula>$B26="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="5" priority="13">
+      <formula>$B30="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX13">
+    <cfRule type="expression" dxfId="4" priority="57">
+      <formula>$B14="Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22 B24">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+  <conditionalFormatting sqref="B22 B24">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Ist"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Soll"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6 B8 B10 B14 B16 B18 B2:C2 B4:C4 B32:C1048576 C5:C11 C14:C19">
-    <cfRule type="cellIs" dxfId="13" priority="49" operator="equal">
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="12" priority="45">
-      <formula>$B12="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$B20="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 B24">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>"Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>$B26="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>$B30="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
-      <formula>"Ist"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
-      <formula>"Ist"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
-      <formula>"Soll"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:W9 D13:AW14 D5:AX8 D10:AX12 D15:AX1048576 F4:AX4 Y9:AX9">
-    <cfRule type="expression" dxfId="2" priority="48">
-      <formula>$B4="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:AY3">
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>$B2="Ist"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX13">
-    <cfRule type="expression" dxfId="0" priority="57">
-      <formula>$B14="Ist"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.44264705882352939" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projektplanung_spotify_M150.xlsx
+++ b/Projektplanung_spotify_M150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Documents\GitHub\spotify_M150\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF65946A-C45B-4DC9-8C58-8BB86AB8B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF3C68-5324-443A-A129-0BD14921F928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{5BA921BB-238C-4D70-8672-E42DB9F504BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5BA921BB-238C-4D70-8672-E42DB9F504BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -381,37 +381,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -426,10 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,11 +1249,11 @@
   </sheetPr>
   <dimension ref="A1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="AU19" sqref="AU19:AY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,66 +1265,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="38"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="36"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -1520,9 +1520,9 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="7">
         <v>44964</v>
       </c>
@@ -1716,10 +1716,10 @@
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
@@ -1776,8 +1776,8 @@
       <c r="AY4" s="9"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="str">
         <f>IF(AND(ISBLANK(B5),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -1832,10 +1832,10 @@
       <c r="AY5" s="10"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="str">
@@ -1892,8 +1892,8 @@
       <c r="AY6" s="9"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="1" t="str">
         <f>IF(AND(ISBLANK(B7),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -1948,10 +1948,10 @@
       <c r="AY7" s="10"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -2008,8 +2008,8 @@
       <c r="AY8" s="9"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1" t="str">
         <f>IF(AND(ISBLANK(B9),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2017,10 +2017,10 @@
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -2064,10 +2064,10 @@
       <c r="AY9" s="10"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -2124,8 +2124,8 @@
       <c r="AY10" s="9"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="1" t="str">
         <f>IF(AND(ISBLANK(B11),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2134,41 +2134,41 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
       <c r="AS11" s="19"/>
@@ -2180,13 +2180,13 @@
       <c r="AY11" s="10"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2237,9 +2237,9 @@
       <c r="AY12" s="9"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="14"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2290,10 +2290,10 @@
       <c r="AY13" s="10"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -2349,8 +2349,8 @@
       <c r="AY14" s="9"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="1" t="str">
         <f>IF(AND(ISBLANK(B15),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2368,21 +2368,21 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
@@ -2405,10 +2405,10 @@
       <c r="AY15" s="10"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -2465,8 +2465,8 @@
       <c r="AY16" s="9"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="1" t="str">
         <f>IF(AND(ISBLANK(B17),ISBLANK(B18)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2505,12 +2505,12 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
@@ -2521,10 +2521,10 @@
       <c r="AY17" s="10"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="str">
@@ -2581,8 +2581,8 @@
       <c r="AY18" s="9"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Ist</v>
@@ -2626,24 +2626,24 @@
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="10"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="15"/>
@@ -2696,9 +2696,9 @@
       <c r="AY20" s="9"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="14"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2749,10 +2749,10 @@
       <c r="AY21" s="10"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2808,8 +2808,8 @@
       <c r="AY22" s="9"/>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1" t="str">
         <f>IF(AND(ISBLANK(B23),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2824,11 +2824,11 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
@@ -2864,10 +2864,10 @@
       <c r="AY23" s="10"/>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2923,8 +2923,8 @@
       <c r="AY24" s="9"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="1" t="str">
         <f>IF(AND(ISBLANK(B25),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
@@ -2939,11 +2939,11 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2979,13 +2979,13 @@
       <c r="AY25" s="10"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="15"/>
@@ -3038,9 +3038,9 @@
       <c r="AY26" s="9"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3091,10 +3091,10 @@
       <c r="AY27" s="10"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -3150,69 +3150,69 @@
       <c r="AY28" s="9"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="1" t="str">
         <f>IF(AND(ISBLANK(B29),ISBLANK(#REF!)),"",IF(MOD(ROW(),2)=0,"Soll","Ist"))</f>
         <v>Ist</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="19"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
-      <c r="AS29" s="19"/>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="10"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="23"/>
+      <c r="AU29" s="23"/>
+      <c r="AV29" s="23"/>
+      <c r="AW29" s="23"/>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="23"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="15"/>
@@ -3265,9 +3265,9 @@
       <c r="AY30" s="9"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="14"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3319,11 +3319,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A1:AY1"/>
@@ -3340,17 +3346,11 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A12 B2:C2 A32:C1048576 A4:C4 C5:C11 C14:C19 A20 A6:B6 A8:B8 A10:B10 A14:B14 A16:B16 A18:B18">
     <cfRule type="cellIs" dxfId="20" priority="50" operator="equal">
@@ -3362,7 +3362,7 @@
       <formula>"Ist"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:AX4 D9:W9 Y9:AX9 D5:AX8 D10:AX12 D13:AW14 D15:AX1048576">
+  <conditionalFormatting sqref="F4:AX4 Y9:AX9 D5:AX8 D13:AW14 D9:W9 D10:AX12 D15:AX18 D30:AX1048576 D29:AY29 D20:AX28 D19:AY19">
     <cfRule type="expression" dxfId="18" priority="48">
       <formula>$B4="Ist"</formula>
     </cfRule>
